--- a/src/main/java/com/ab/test/data/TestData.xlsx
+++ b/src/main/java/com/ab/test/data/TestData.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="370"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="370" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RegisteraBlock" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="Events" sheetId="6" r:id="rId3"/>
-    <sheet name="News" sheetId="7" r:id="rId4"/>
-    <sheet name="Contactus" sheetId="4" r:id="rId5"/>
-    <sheet name="MyProfile" sheetId="8" r:id="rId6"/>
+    <sheet name="Cleanup" sheetId="9" r:id="rId4"/>
+    <sheet name="News" sheetId="7" r:id="rId5"/>
+    <sheet name="Contactus" sheetId="4" r:id="rId6"/>
+    <sheet name="MyProfile" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Login</t>
   </si>
@@ -195,9 +196,6 @@
     <t>EventAltTag</t>
   </si>
   <si>
-    <t>The mission of the Adopt-A-Block program is to help keep Memphis beautiful</t>
-  </si>
-  <si>
     <t xml:space="preserve">The mission of the Adopt-A-Block program is to help keep Memphis beautiful </t>
   </si>
   <si>
@@ -229,6 +227,42 @@
   </si>
   <si>
     <t>884-235-7894</t>
+  </si>
+  <si>
+    <t>9666-597-666</t>
+  </si>
+  <si>
+    <t>998-979-6747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adopt-A-Block program is to help keep Memphis beautiful</t>
+  </si>
+  <si>
+    <t>38-119</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Volunteers</t>
+  </si>
+  <si>
+    <t>Youthunder18</t>
+  </si>
+  <si>
+    <t>BagsofLitterTrashcollected</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>StormDrains</t>
+  </si>
+  <si>
+    <t>MiscellaneousActivities:tDescription</t>
   </si>
 </sst>
 </file>
@@ -345,7 +379,7 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -420,6 +454,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -720,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,10 +901,10 @@
         <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="22" customFormat="1" ht="15.75" customHeight="1">
@@ -894,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>68</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>2</v>
@@ -906,13 +948,13 @@
         <v>17</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -996,19 +1038,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="167.140625" bestFit="1" customWidth="1"/>
@@ -1039,7 +1083,7 @@
       <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="37">
         <v>8</v>
       </c>
       <c r="J1">
@@ -1066,7 +1110,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1097,7 +1141,7 @@
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="21" t="s">
         <v>54</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1113,58 +1157,163 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" s="35" customFormat="1">
+      <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4">
-        <v>38119</v>
-      </c>
-      <c r="J4" s="4">
-        <v>9989796747</v>
-      </c>
-      <c r="K4" s="4">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="34" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="167.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="35" customFormat="1">
+      <c r="A4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="23">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>50</v>
+      </c>
+      <c r="D4" s="19">
+        <v>30</v>
+      </c>
+      <c r="E4" s="19">
+        <v>25</v>
+      </c>
+      <c r="F4" s="19">
+        <v>20</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,7 +1409,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>48</v>
@@ -1278,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1364,21 +1513,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1453,33 +1604,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" s="35" customFormat="1">
+      <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="34">
         <v>38113</v>
       </c>
-      <c r="I4" s="4">
-        <v>9666597666</v>
+      <c r="I4" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1487,5 +1638,6 @@
     <hyperlink ref="C4" r:id="rId1" display="mani6747@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>